--- a/REGULAR/CCR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/CCR/TOLENTINO, CAROLINA.xlsx
@@ -1889,7 +1889,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1932,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1996,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2056,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2122,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2185,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2283,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2342,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2407,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2450,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2525,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2711,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2777,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2835,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2901,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2957,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3032,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3075,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3141,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3197,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3295,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3358,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3802,12 +3802,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K544"/>
+  <dimension ref="A2:M544"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3540" topLeftCell="A458" activePane="bottomLeft"/>
-      <selection activeCell="J8" sqref="J8"/>
-      <selection pane="bottomLeft" activeCell="K475" sqref="K475"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="H481" sqref="H481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,7 +3825,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3846,7 +3846,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3886,7 +3886,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3894,7 +3894,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3907,7 +3907,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3924,7 +3924,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3968,7 +3968,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>167.11200000000011</v>
+        <v>168.36200000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3978,12 +3978,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269.75</v>
+        <v>271</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4005,7 +4006,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>35999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -4051,7 +4052,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -4101,7 +4102,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -4121,7 +4122,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36100</v>
       </c>
@@ -14334,15 +14335,17 @@
       <c r="B473" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C473" s="13"/>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D473" s="39">
         <v>1</v>
       </c>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H473" s="39"/>
       <c r="I473" s="9"/>

--- a/REGULAR/CCR/TOLENTINO, CAROLINA.xlsx
+++ b/REGULAR/CCR/TOLENTINO, CAROLINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA0D14F-3CA8-4A97-B020-B942ED2AFF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="332">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1018,12 +1019,24 @@
   </si>
   <si>
     <t>2025</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/10,11,12/2024</t>
+  </si>
+  <si>
+    <t>1/15,16,17,18,19/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1889,7 +1902,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1945,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +2009,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2056,7 +2069,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2122,7 +2135,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2198,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2296,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2355,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2420,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2450,7 +2463,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2538,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2711,7 +2724,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2777,7 +2790,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2848,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2901,7 +2914,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2970,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3032,7 +3045,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3088,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3141,7 +3154,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,7 +3210,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,7 +3308,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3371,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3407,7 +3420,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3424,25 +3437,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K545" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3454,13 +3467,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3469,14 +3482,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3780,7 +3793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3790,7 +3803,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3798,34 +3811,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M544"/>
+  <dimension ref="A2:M545"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3540" topLeftCell="A458" activePane="bottomLeft"/>
-      <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="H481" sqref="H481"/>
+      <pane ySplit="3540" topLeftCell="A467" activePane="bottomLeft"/>
+      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection pane="bottomLeft" activeCell="E479" sqref="E479"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3846,11 +3859,13 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="53" t="s">
+        <v>328</v>
+      </c>
       <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3864,7 +3879,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3886,7 +3901,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3894,7 +3909,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3907,7 +3922,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3924,7 +3939,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3968,7 +3983,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>168.36200000000011</v>
+        <v>164.61200000000011</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3978,13 +3993,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>271</v>
+        <v>272.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
       <c r="M9" s="43"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>45</v>
       </c>
@@ -4006,7 +4021,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35977</v>
       </c>
@@ -4032,7 +4047,7 @@
         <v>35999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>36008</v>
       </c>
@@ -4052,7 +4067,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36039</v>
       </c>
@@ -4078,7 +4093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36069</v>
       </c>
@@ -4102,7 +4117,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>49</v>
@@ -4122,7 +4137,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36100</v>
       </c>
@@ -4146,7 +4161,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36130</v>
       </c>
@@ -4170,7 +4185,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="15" t="s">
         <v>52</v>
@@ -4190,7 +4205,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="15" t="s">
         <v>53</v>
@@ -4210,7 +4225,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>55</v>
       </c>
@@ -4228,7 +4243,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36161</v>
       </c>
@@ -4252,7 +4267,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36192</v>
       </c>
@@ -4276,7 +4291,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>36220</v>
       </c>
@@ -4302,7 +4317,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>82</v>
@@ -4322,7 +4337,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36251</v>
       </c>
@@ -4348,7 +4363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36281</v>
       </c>
@@ -4374,7 +4389,7 @@
         <v>36308</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>87</v>
@@ -4394,7 +4409,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36312</v>
       </c>
@@ -4414,7 +4429,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36342</v>
       </c>
@@ -4434,7 +4449,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>36373</v>
       </c>
@@ -4458,7 +4473,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36404</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>90</v>
@@ -4504,7 +4519,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36434</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36465</v>
       </c>
@@ -4550,7 +4565,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36495</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>93</v>
@@ -4596,7 +4611,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>93</v>
@@ -4616,7 +4631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>56</v>
       </c>
@@ -4634,7 +4649,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36526</v>
       </c>
@@ -4660,7 +4675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>97</v>
@@ -4680,7 +4695,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36557</v>
       </c>
@@ -4700,7 +4715,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36586</v>
       </c>
@@ -4720,7 +4735,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36617</v>
       </c>
@@ -4746,7 +4761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>93</v>
@@ -4766,7 +4781,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36647</v>
       </c>
@@ -4788,7 +4803,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>100</v>
@@ -4808,7 +4823,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36678</v>
       </c>
@@ -4828,7 +4843,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36708</v>
       </c>
@@ -4852,7 +4867,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36739</v>
       </c>
@@ -4878,7 +4893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36770</v>
       </c>
@@ -4898,7 +4913,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>36800</v>
       </c>
@@ -4924,7 +4939,7 @@
         <v>36801</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -4946,7 +4961,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>103</v>
@@ -4966,7 +4981,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36831</v>
       </c>
@@ -4992,7 +5007,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>103</v>
@@ -5012,7 +5027,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>93</v>
@@ -5032,7 +5047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36861</v>
       </c>
@@ -5056,7 +5071,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>108</v>
@@ -5076,7 +5091,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>57</v>
       </c>
@@ -5094,7 +5109,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>36892</v>
       </c>
@@ -5118,7 +5133,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36923</v>
       </c>
@@ -5138,7 +5153,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36951</v>
       </c>
@@ -5158,7 +5173,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>36982</v>
       </c>
@@ -5182,7 +5197,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37012</v>
       </c>
@@ -5202,7 +5217,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>37043</v>
       </c>
@@ -5222,7 +5237,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37073</v>
       </c>
@@ -5248,7 +5263,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37104</v>
       </c>
@@ -5274,7 +5289,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37135</v>
       </c>
@@ -5300,7 +5315,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37165</v>
       </c>
@@ -5326,7 +5341,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>93</v>
@@ -5346,7 +5361,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5368,7 +5383,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37196</v>
       </c>
@@ -5392,7 +5407,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -5412,7 +5427,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37226</v>
       </c>
@@ -5438,7 +5453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>58</v>
       </c>
@@ -5456,7 +5471,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37257</v>
       </c>
@@ -5480,7 +5495,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37288</v>
       </c>
@@ -5504,7 +5519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>120</v>
@@ -5524,7 +5539,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37316</v>
       </c>
@@ -5548,7 +5563,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37347</v>
       </c>
@@ -5572,7 +5587,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37377</v>
       </c>
@@ -5598,7 +5613,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>93</v>
@@ -5618,7 +5633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>124</v>
@@ -5664,7 +5679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37438</v>
       </c>
@@ -5684,7 +5699,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37469</v>
       </c>
@@ -5710,7 +5725,7 @@
         <v>37469</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37500</v>
       </c>
@@ -5734,7 +5749,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37530</v>
       </c>
@@ -5758,7 +5773,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>54</v>
@@ -5778,7 +5793,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37561</v>
       </c>
@@ -5802,7 +5817,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37591</v>
       </c>
@@ -5826,7 +5841,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>59</v>
       </c>
@@ -5844,7 +5859,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37622</v>
       </c>
@@ -5864,7 +5879,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>37653</v>
       </c>
@@ -5888,7 +5903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37681</v>
       </c>
@@ -5912,7 +5927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -5932,7 +5947,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -5952,7 +5967,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37773</v>
       </c>
@@ -5978,7 +5993,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>37803</v>
       </c>
@@ -5998,7 +6013,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37834</v>
       </c>
@@ -6024,7 +6039,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37865</v>
       </c>
@@ -6048,7 +6063,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37895</v>
       </c>
@@ -6074,7 +6089,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>93</v>
@@ -6094,7 +6109,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>54</v>
@@ -6114,7 +6129,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37926</v>
       </c>
@@ -6140,7 +6155,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>54</v>
@@ -6162,7 +6177,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>137</v>
@@ -6182,7 +6197,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37956</v>
       </c>
@@ -6206,7 +6221,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>90</v>
@@ -6226,7 +6241,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="47" t="s">
         <v>60</v>
       </c>
@@ -6244,7 +6259,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37987</v>
       </c>
@@ -6268,7 +6283,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>38018</v>
       </c>
@@ -6292,7 +6307,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>38047</v>
       </c>
@@ -6318,7 +6333,7 @@
         <v>38072</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>142</v>
@@ -6338,7 +6353,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>38078</v>
       </c>
@@ -6364,7 +6379,7 @@
         <v>38078</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>84</v>
@@ -6386,7 +6401,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>38108</v>
       </c>
@@ -6412,7 +6427,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>102</v>
@@ -6434,7 +6449,7 @@
         <v>38138</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>119</v>
@@ -6454,7 +6469,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>93</v>
@@ -6474,7 +6489,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38139</v>
       </c>
@@ -6500,7 +6515,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>146</v>
@@ -6520,7 +6535,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38169</v>
       </c>
@@ -6544,7 +6559,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>38200</v>
       </c>
@@ -6564,7 +6579,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38231</v>
       </c>
@@ -6588,7 +6603,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38261</v>
       </c>
@@ -6614,7 +6629,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>86</v>
@@ -6636,7 +6651,7 @@
         <v>38279</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>148</v>
@@ -6656,7 +6671,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>102</v>
@@ -6678,7 +6693,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38292</v>
       </c>
@@ -6702,7 +6717,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>93</v>
@@ -6722,7 +6737,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38322</v>
       </c>
@@ -6746,7 +6761,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>93</v>
@@ -6766,7 +6781,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="47" t="s">
         <v>61</v>
       </c>
@@ -6784,7 +6799,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38353</v>
       </c>
@@ -6810,7 +6825,7 @@
         <v>38377</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>132</v>
@@ -6832,7 +6847,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>154</v>
@@ -6852,7 +6867,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38384</v>
       </c>
@@ -6876,7 +6891,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>38412</v>
       </c>
@@ -6902,7 +6917,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>93</v>
@@ -6922,7 +6937,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>159</v>
@@ -6942,7 +6957,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>86</v>
@@ -6964,7 +6979,7 @@
         <v>38456</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>38443</v>
       </c>
@@ -6990,7 +7005,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>161</v>
@@ -7010,7 +7025,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>38473</v>
       </c>
@@ -7034,7 +7049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>164</v>
@@ -7054,7 +7069,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38504</v>
       </c>
@@ -7078,7 +7093,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38534</v>
       </c>
@@ -7100,7 +7115,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>167</v>
@@ -7120,7 +7135,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38565</v>
       </c>
@@ -7144,7 +7159,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38596</v>
       </c>
@@ -7170,7 +7185,7 @@
         <v>38625</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>169</v>
@@ -7190,7 +7205,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="48"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -7216,7 +7231,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>171</v>
@@ -7236,7 +7251,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38657</v>
       </c>
@@ -7260,7 +7275,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38687</v>
       </c>
@@ -7284,7 +7299,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>173</v>
@@ -7304,7 +7319,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>62</v>
       </c>
@@ -7322,7 +7337,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38718</v>
       </c>
@@ -7346,7 +7361,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38749</v>
       </c>
@@ -7370,7 +7385,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38777</v>
       </c>
@@ -7394,7 +7409,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>177</v>
@@ -7414,7 +7429,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38808</v>
       </c>
@@ -7438,7 +7453,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>93</v>
@@ -7458,7 +7473,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38838</v>
       </c>
@@ -7482,7 +7497,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38869</v>
       </c>
@@ -7506,7 +7521,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38899</v>
       </c>
@@ -7530,7 +7545,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38930</v>
       </c>
@@ -7556,7 +7571,7 @@
         <v>38933</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>102</v>
@@ -7578,7 +7593,7 @@
         <v>38958</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>184</v>
@@ -7598,7 +7613,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38961</v>
       </c>
@@ -7624,7 +7639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>185</v>
@@ -7644,7 +7659,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38991</v>
       </c>
@@ -7666,7 +7681,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>187</v>
@@ -7686,7 +7701,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>39022</v>
       </c>
@@ -7710,7 +7725,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>39052</v>
       </c>
@@ -7736,7 +7751,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>190</v>
@@ -7756,7 +7771,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="47" t="s">
         <v>63</v>
       </c>
@@ -7774,7 +7789,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>39083</v>
       </c>
@@ -7798,7 +7813,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>39114</v>
       </c>
@@ -7824,7 +7839,7 @@
         <v>39121</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>193</v>
@@ -7844,7 +7859,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>39142</v>
       </c>
@@ -7868,7 +7883,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>39173</v>
       </c>
@@ -7894,7 +7909,7 @@
         <v>39175</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>195</v>
@@ -7914,7 +7929,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>39203</v>
       </c>
@@ -7940,7 +7955,7 @@
         <v>39212</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>102</v>
@@ -7962,7 +7977,7 @@
         <v>39219</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>93</v>
@@ -7982,7 +7997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>102</v>
@@ -8004,7 +8019,7 @@
         <v>39227</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>197</v>
@@ -8024,7 +8039,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="48"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39234</v>
       </c>
@@ -8048,7 +8063,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39264</v>
       </c>
@@ -8072,7 +8087,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>39295</v>
       </c>
@@ -8096,7 +8111,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>39326</v>
       </c>
@@ -8122,7 +8137,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>200</v>
@@ -8142,7 +8157,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>39356</v>
       </c>
@@ -8168,7 +8183,7 @@
         <v>39379</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>202</v>
@@ -8188,7 +8203,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>39387</v>
       </c>
@@ -8212,7 +8227,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>39417</v>
       </c>
@@ -8238,7 +8253,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>140</v>
@@ -8260,7 +8275,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>107</v>
@@ -8280,7 +8295,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>206</v>
@@ -8300,7 +8315,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>64</v>
       </c>
@@ -8318,7 +8333,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>39448</v>
       </c>
@@ -8342,7 +8357,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>39479</v>
       </c>
@@ -8366,7 +8381,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>39508</v>
       </c>
@@ -8388,7 +8403,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>209</v>
@@ -8408,7 +8423,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39539</v>
       </c>
@@ -8434,7 +8449,7 @@
         <v>39563</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>210</v>
@@ -8454,7 +8469,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39569</v>
       </c>
@@ -8478,7 +8493,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39600</v>
       </c>
@@ -8502,7 +8517,7 @@
       <c r="J210" s="12"/>
       <c r="K210" s="15"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39630</v>
       </c>
@@ -8526,7 +8541,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>39661</v>
       </c>
@@ -8552,7 +8567,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>214</v>
@@ -8572,7 +8587,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39692</v>
       </c>
@@ -8596,7 +8611,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>39722</v>
       </c>
@@ -8622,7 +8637,7 @@
         <v>39745</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>216</v>
@@ -8642,7 +8657,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="48"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>39753</v>
       </c>
@@ -8668,7 +8683,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>219</v>
@@ -8688,7 +8703,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39783</v>
       </c>
@@ -8712,7 +8727,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>88</v>
@@ -8732,7 +8747,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>65</v>
       </c>
@@ -8750,7 +8765,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39814</v>
       </c>
@@ -8774,7 +8789,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39845</v>
       </c>
@@ -8798,7 +8813,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39873</v>
       </c>
@@ -8822,7 +8837,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>93</v>
@@ -8842,7 +8857,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>221</v>
@@ -8862,7 +8877,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39904</v>
       </c>
@@ -8882,7 +8897,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39934</v>
       </c>
@@ -8906,7 +8921,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39965</v>
       </c>
@@ -8926,7 +8941,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39995</v>
       </c>
@@ -8946,7 +8961,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>40026</v>
       </c>
@@ -8966,7 +8981,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>40057</v>
       </c>
@@ -8986,7 +9001,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>40087</v>
       </c>
@@ -9006,7 +9021,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>40118</v>
       </c>
@@ -9026,7 +9041,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>40148</v>
       </c>
@@ -9052,7 +9067,7 @@
         <v>40171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>217</v>
@@ -9072,7 +9087,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="48"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="47" t="s">
         <v>66</v>
       </c>
@@ -9090,7 +9105,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>40179</v>
       </c>
@@ -9110,7 +9125,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>40210</v>
       </c>
@@ -9130,7 +9145,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>40238</v>
       </c>
@@ -9150,7 +9165,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>40269</v>
       </c>
@@ -9170,7 +9185,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>40299</v>
       </c>
@@ -9190,7 +9205,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40330</v>
       </c>
@@ -9210,7 +9225,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>40360</v>
       </c>
@@ -9230,7 +9245,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>40391</v>
       </c>
@@ -9250,7 +9265,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>40422</v>
       </c>
@@ -9274,7 +9289,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>40452</v>
       </c>
@@ -9300,7 +9315,7 @@
         <v>40455</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>224</v>
@@ -9320,7 +9335,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>40483</v>
       </c>
@@ -9344,7 +9359,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>40513</v>
       </c>
@@ -9368,7 +9383,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="47" t="s">
         <v>67</v>
       </c>
@@ -9386,7 +9401,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>40544</v>
       </c>
@@ -9412,7 +9427,7 @@
         <v>40581</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>213</v>
@@ -9432,7 +9447,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>40575</v>
       </c>
@@ -9458,7 +9473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>102</v>
@@ -9480,7 +9495,7 @@
         <v>40596</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>229</v>
@@ -9500,7 +9515,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="48"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>40603</v>
       </c>
@@ -9526,7 +9541,7 @@
         <v>40609</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>54</v>
@@ -9548,7 +9563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>102</v>
@@ -9570,7 +9585,7 @@
         <v>40623</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>93</v>
@@ -9590,7 +9605,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>93</v>
@@ -9610,7 +9625,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>234</v>
@@ -9630,7 +9645,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40634</v>
       </c>
@@ -9654,7 +9669,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>40664</v>
       </c>
@@ -9678,7 +9693,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40695</v>
       </c>
@@ -9702,7 +9717,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40725</v>
       </c>
@@ -9728,7 +9743,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>236</v>
@@ -9748,7 +9763,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40756</v>
       </c>
@@ -9772,7 +9787,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40787</v>
       </c>
@@ -9796,7 +9811,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>40817</v>
       </c>
@@ -9822,7 +9837,7 @@
         <v>40840</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>239</v>
@@ -9842,7 +9857,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="48"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40848</v>
       </c>
@@ -9866,7 +9881,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40878</v>
       </c>
@@ -9892,7 +9907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>241</v>
@@ -9912,7 +9927,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="47" t="s">
         <v>68</v>
       </c>
@@ -9930,7 +9945,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
         <v>40909</v>
       </c>
@@ -9956,7 +9971,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>243</v>
@@ -9976,7 +9991,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>40940</v>
       </c>
@@ -9996,7 +10011,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40969</v>
       </c>
@@ -10020,7 +10035,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>41000</v>
       </c>
@@ -10040,7 +10055,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>41030</v>
       </c>
@@ -10066,7 +10081,7 @@
         <v>41060</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>41061</v>
       </c>
@@ -10086,7 +10101,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>41091</v>
       </c>
@@ -10112,7 +10127,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>41122</v>
       </c>
@@ -10132,7 +10147,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>41153</v>
       </c>
@@ -10152,7 +10167,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>41183</v>
       </c>
@@ -10178,7 +10193,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>93</v>
@@ -10198,7 +10213,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>41214</v>
       </c>
@@ -10224,7 +10239,7 @@
         <v>41257</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>41244</v>
       </c>
@@ -10244,7 +10259,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="47" t="s">
         <v>69</v>
       </c>
@@ -10262,7 +10277,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>41275</v>
       </c>
@@ -10286,7 +10301,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>41306</v>
       </c>
@@ -10306,7 +10321,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>41334</v>
       </c>
@@ -10326,7 +10341,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>41365</v>
       </c>
@@ -10350,7 +10365,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>41395</v>
       </c>
@@ -10374,7 +10389,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>41426</v>
       </c>
@@ -10398,7 +10413,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>41456</v>
       </c>
@@ -10422,7 +10437,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>41487</v>
       </c>
@@ -10446,7 +10461,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>41518</v>
       </c>
@@ -10470,7 +10485,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>41548</v>
       </c>
@@ -10498,7 +10513,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -10518,7 +10533,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>41579</v>
       </c>
@@ -10542,7 +10557,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>41609</v>
       </c>
@@ -10566,7 +10581,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>256</v>
@@ -10586,7 +10601,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="47" t="s">
         <v>70</v>
       </c>
@@ -10604,7 +10619,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>41640</v>
       </c>
@@ -10628,7 +10643,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>41671</v>
       </c>
@@ -10652,7 +10667,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>41699</v>
       </c>
@@ -10676,7 +10691,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>41730</v>
       </c>
@@ -10700,7 +10715,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41760</v>
       </c>
@@ -10724,7 +10739,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41791</v>
       </c>
@@ -10748,7 +10763,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>41821</v>
       </c>
@@ -10774,7 +10789,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>265</v>
@@ -10794,7 +10809,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41852</v>
       </c>
@@ -10818,7 +10833,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41883</v>
       </c>
@@ -10842,7 +10857,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>41913</v>
       </c>
@@ -10866,7 +10881,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>93</v>
@@ -10886,7 +10901,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>268</v>
@@ -10906,7 +10921,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41944</v>
       </c>
@@ -10932,7 +10947,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>272</v>
@@ -10952,7 +10967,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>41974</v>
       </c>
@@ -10976,7 +10991,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>273</v>
@@ -10996,7 +11011,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="47" t="s">
         <v>71</v>
       </c>
@@ -11014,7 +11029,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>42005</v>
       </c>
@@ -11038,7 +11053,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>42036</v>
       </c>
@@ -11062,7 +11077,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>42064</v>
       </c>
@@ -11086,7 +11101,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>54</v>
@@ -11108,7 +11123,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>102</v>
@@ -11130,7 +11145,7 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>276</v>
@@ -11150,7 +11165,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>42095</v>
       </c>
@@ -11174,7 +11189,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>280</v>
@@ -11194,7 +11209,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>42125</v>
       </c>
@@ -11218,7 +11233,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>42156</v>
       </c>
@@ -11242,7 +11257,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>42186</v>
       </c>
@@ -11266,7 +11281,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>42217</v>
       </c>
@@ -11290,7 +11305,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>42248</v>
       </c>
@@ -11314,7 +11329,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>42278</v>
       </c>
@@ -11340,7 +11355,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>93</v>
@@ -11360,7 +11375,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>288</v>
@@ -11380,7 +11395,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>42309</v>
       </c>
@@ -11404,7 +11419,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>42339</v>
       </c>
@@ -11428,7 +11443,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>290</v>
@@ -11448,7 +11463,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="47" t="s">
         <v>72</v>
       </c>
@@ -11466,7 +11481,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>42370</v>
       </c>
@@ -11490,7 +11505,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>42401</v>
       </c>
@@ -11514,7 +11529,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>42430</v>
       </c>
@@ -11538,7 +11553,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>42461</v>
       </c>
@@ -11564,7 +11579,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>93</v>
@@ -11584,7 +11599,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>293</v>
@@ -11604,7 +11619,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="48"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>42491</v>
       </c>
@@ -11628,7 +11643,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>42522</v>
       </c>
@@ -11654,7 +11669,7 @@
         <v>42565</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>295</v>
@@ -11674,7 +11689,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>42552</v>
       </c>
@@ -11698,7 +11713,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>42583</v>
       </c>
@@ -11722,7 +11737,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>42614</v>
       </c>
@@ -11744,7 +11759,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>297</v>
@@ -11764,7 +11779,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>42644</v>
       </c>
@@ -11790,7 +11805,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>298</v>
@@ -11810,7 +11825,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>42675</v>
       </c>
@@ -11834,7 +11849,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>42705</v>
       </c>
@@ -11860,7 +11875,7 @@
         <v>42726</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>156</v>
@@ -11880,7 +11895,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="48"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>296</v>
@@ -11900,7 +11915,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="48"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="47" t="s">
         <v>73</v>
       </c>
@@ -11918,7 +11933,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>42736</v>
       </c>
@@ -11942,7 +11957,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42767</v>
       </c>
@@ -11966,7 +11981,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>42795</v>
       </c>
@@ -11990,7 +12005,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>42826</v>
       </c>
@@ -12012,7 +12027,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>302</v>
@@ -12032,7 +12047,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>42856</v>
       </c>
@@ -12056,7 +12071,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>42887</v>
       </c>
@@ -12076,7 +12091,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>42917</v>
       </c>
@@ -12102,7 +12117,7 @@
         <v>42936</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>108</v>
@@ -12122,7 +12137,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="48"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>42948</v>
       </c>
@@ -12146,7 +12161,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>42979</v>
       </c>
@@ -12170,7 +12185,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>43009</v>
       </c>
@@ -12196,7 +12211,7 @@
         <v>43032</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>43040</v>
       </c>
@@ -12222,7 +12237,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>43070</v>
       </c>
@@ -12246,7 +12261,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="47" t="s">
         <v>74</v>
       </c>
@@ -12264,7 +12279,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>43101</v>
       </c>
@@ -12284,7 +12299,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>43132</v>
       </c>
@@ -12310,7 +12325,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>102</v>
@@ -12332,7 +12347,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>43160</v>
       </c>
@@ -12352,7 +12367,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>43191</v>
       </c>
@@ -12372,7 +12387,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>43221</v>
       </c>
@@ -12392,7 +12407,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>43252</v>
       </c>
@@ -12412,7 +12427,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>43282</v>
       </c>
@@ -12432,7 +12447,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>43313</v>
       </c>
@@ -12458,7 +12473,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>43344</v>
       </c>
@@ -12478,7 +12493,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>43374</v>
       </c>
@@ -12504,7 +12519,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>93</v>
@@ -12524,7 +12539,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>43405</v>
       </c>
@@ -12550,7 +12565,7 @@
         <v>43420</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>43435</v>
       </c>
@@ -12574,7 +12589,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="47" t="s">
         <v>75</v>
       </c>
@@ -12592,7 +12607,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>43466</v>
       </c>
@@ -12612,7 +12627,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>43497</v>
       </c>
@@ -12636,7 +12651,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>227</v>
@@ -12658,7 +12673,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43525</v>
       </c>
@@ -12678,7 +12693,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>43556</v>
       </c>
@@ -12702,7 +12717,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>102</v>
@@ -12724,7 +12739,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>43586</v>
       </c>
@@ -12744,7 +12759,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>43617</v>
       </c>
@@ -12768,7 +12783,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>43647</v>
       </c>
@@ -12788,7 +12803,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>43678</v>
       </c>
@@ -12808,7 +12823,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>43709</v>
       </c>
@@ -12828,7 +12843,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>43739</v>
       </c>
@@ -12854,7 +12869,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>43770</v>
       </c>
@@ -12880,7 +12895,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>43800</v>
       </c>
@@ -12906,7 +12921,7 @@
         <v>43822</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="47" t="s">
         <v>76</v>
       </c>
@@ -12924,7 +12939,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43831</v>
       </c>
@@ -12948,7 +12963,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>43862</v>
       </c>
@@ -12974,7 +12989,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>43891</v>
       </c>
@@ -12994,7 +13009,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>43922</v>
       </c>
@@ -13014,7 +13029,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43952</v>
       </c>
@@ -13034,7 +13049,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43983</v>
       </c>
@@ -13054,7 +13069,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>44013</v>
       </c>
@@ -13074,7 +13089,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>44044</v>
       </c>
@@ -13100,7 +13115,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>54</v>
@@ -13122,7 +13137,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>44075</v>
       </c>
@@ -13142,7 +13157,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>44105</v>
       </c>
@@ -13162,7 +13177,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>44136</v>
       </c>
@@ -13182,7 +13197,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>44166</v>
       </c>
@@ -13208,7 +13223,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="47" t="s">
         <v>77</v>
       </c>
@@ -13226,7 +13241,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>44197</v>
       </c>
@@ -13246,7 +13261,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>44228</v>
       </c>
@@ -13266,7 +13281,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>44256</v>
       </c>
@@ -13286,7 +13301,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>44287</v>
       </c>
@@ -13306,7 +13321,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>44317</v>
       </c>
@@ -13326,7 +13341,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>44348</v>
       </c>
@@ -13346,7 +13361,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>44378</v>
       </c>
@@ -13366,7 +13381,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>44409</v>
       </c>
@@ -13386,7 +13401,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>44440</v>
       </c>
@@ -13406,7 +13421,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>44470</v>
       </c>
@@ -13426,7 +13441,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>44501</v>
       </c>
@@ -13446,7 +13461,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>44531</v>
       </c>
@@ -13472,7 +13487,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="47" t="s">
         <v>78</v>
       </c>
@@ -13490,7 +13505,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44562</v>
       </c>
@@ -13510,7 +13525,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44593</v>
       </c>
@@ -13530,7 +13545,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44621</v>
       </c>
@@ -13556,7 +13571,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44652</v>
       </c>
@@ -13582,7 +13597,7 @@
         <v>44659</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>86</v>
@@ -13604,7 +13619,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>44682</v>
       </c>
@@ -13628,7 +13643,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>44713</v>
       </c>
@@ -13654,7 +13669,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>88</v>
@@ -13674,7 +13689,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="48"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>44743</v>
       </c>
@@ -13700,7 +13715,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44774</v>
       </c>
@@ -13720,7 +13735,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>44805</v>
       </c>
@@ -13744,7 +13759,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>44835</v>
       </c>
@@ -13770,7 +13785,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>84</v>
@@ -13792,7 +13807,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>102</v>
@@ -13814,7 +13829,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>84</v>
@@ -13836,7 +13851,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44866</v>
       </c>
@@ -13862,7 +13877,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>102</v>
@@ -13884,7 +13899,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>219</v>
@@ -13904,7 +13919,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="48"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>44896</v>
       </c>
@@ -13930,7 +13945,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>102</v>
@@ -13952,7 +13967,7 @@
         <v>37597</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>181</v>
@@ -13972,7 +13987,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="48"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="47" t="s">
         <v>318</v>
       </c>
@@ -13990,7 +14005,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44957</v>
       </c>
@@ -14010,7 +14025,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44985</v>
       </c>
@@ -14030,7 +14045,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>45016</v>
       </c>
@@ -14056,7 +14071,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>93</v>
@@ -14076,7 +14091,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>45046</v>
       </c>
@@ -14102,7 +14117,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>102</v>
@@ -14124,7 +14139,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>45077</v>
       </c>
@@ -14148,7 +14163,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>102</v>
@@ -14170,7 +14185,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>102</v>
@@ -14192,7 +14207,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>45107</v>
       </c>
@@ -14218,7 +14233,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>45138</v>
       </c>
@@ -14238,7 +14253,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>45169</v>
       </c>
@@ -14258,7 +14273,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>45199</v>
       </c>
@@ -14278,7 +14293,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>45230</v>
       </c>
@@ -14304,7 +14319,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>45260</v>
       </c>
@@ -14328,7 +14343,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>45291</v>
       </c>
@@ -14354,7 +14369,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>217</v>
@@ -14374,7 +14389,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="48"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>102</v>
@@ -14396,7 +14411,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="47" t="s">
         <v>325</v>
       </c>
@@ -14414,31 +14429,39 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>45322</v>
       </c>
-      <c r="B477" s="20"/>
-      <c r="C477" s="13"/>
+      <c r="B477" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C477" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D477" s="39"/>
       <c r="E477" s="9"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G477" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="20"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B478" s="20"/>
+      <c r="K477" s="20" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="40"/>
+      <c r="B478" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="C478" s="13"/>
-      <c r="D478" s="39"/>
+      <c r="D478" s="39">
+        <v>5</v>
+      </c>
       <c r="E478" s="9"/>
       <c r="F478" s="20"/>
       <c r="G478" s="13" t="str">
@@ -14448,11 +14471,13 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9"/>
       <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K478" s="20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -14468,9 +14493,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -14486,9 +14511,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -14504,9 +14529,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -14522,9 +14547,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -14540,9 +14565,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -14558,9 +14583,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -14576,9 +14601,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -14594,9 +14619,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -14612,9 +14637,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -14630,9 +14655,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A489" s="47" t="s">
-        <v>327</v>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="40">
+        <v>45657</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -14648,9 +14673,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="40">
-        <v>45688</v>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490" s="47" t="s">
+        <v>327</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -14666,9 +14691,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -14684,9 +14709,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -14702,9 +14727,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -14720,9 +14745,9 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -14738,9 +14763,9 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -14756,9 +14781,9 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -14774,9 +14799,9 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -14792,9 +14817,9 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -14810,9 +14835,9 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -14828,9 +14853,9 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B500" s="20"/>
       <c r="C500" s="13"/>
@@ -14846,9 +14871,9 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13"/>
@@ -14864,9 +14889,9 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13"/>
@@ -14882,9 +14907,9 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13"/>
@@ -14900,9 +14925,9 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13"/>
@@ -14918,9 +14943,9 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13"/>
@@ -14936,9 +14961,9 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13"/>
@@ -14954,9 +14979,9 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13"/>
@@ -14972,9 +14997,9 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -14990,9 +15015,9 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -15008,9 +15033,9 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -15026,9 +15051,9 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -15044,9 +15069,9 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -15062,9 +15087,9 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -15080,9 +15105,9 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -15098,9 +15123,9 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -15116,9 +15141,9 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -15134,9 +15159,9 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -15152,9 +15177,9 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -15170,9 +15195,9 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15188,9 +15213,9 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15206,9 +15231,9 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15224,9 +15249,9 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15242,9 +15267,9 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15260,9 +15285,9 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15278,9 +15303,9 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15296,9 +15321,9 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15314,9 +15339,9 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15332,9 +15357,9 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15350,9 +15375,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15368,9 +15393,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15386,9 +15411,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15404,9 +15429,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15422,9 +15447,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15440,9 +15465,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15458,9 +15483,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -15476,9 +15501,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -15494,9 +15519,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -15512,9 +15537,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -15530,9 +15555,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>47177</v>
+        <v>47149</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -15548,9 +15573,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
-        <v>47208</v>
+        <v>47177</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -15566,9 +15591,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
-        <v>47238</v>
+        <v>47208</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -15584,9 +15609,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
-        <v>47269</v>
+        <v>47238</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -15602,9 +15627,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>47299</v>
+        <v>47269</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -15620,9 +15645,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>47330</v>
+        <v>47299</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -15637,6 +15662,24 @@
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A545" s="40">
+        <v>47330</v>
+      </c>
+      <c r="B545" s="20"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="39"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="20"/>
+      <c r="G545" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="39"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="11"/>
+      <c r="K545" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15653,10 +15696,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15679,7 +15722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15687,21 +15730,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -15714,7 +15757,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15743,7 +15786,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>34</v>
       </c>
@@ -15769,17 +15812,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15800,7 +15843,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15827,7 +15870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15853,7 +15896,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15879,7 +15922,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15905,7 +15948,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15931,7 +15974,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15957,7 +16000,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15983,7 +16026,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16009,7 +16052,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16029,7 +16072,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16049,7 +16092,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16069,7 +16112,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16090,7 +16133,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16111,7 +16154,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16132,7 +16175,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16153,7 +16196,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16174,7 +16217,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16195,7 +16238,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16216,7 +16259,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16237,7 +16280,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16258,7 +16301,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16279,7 +16322,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16300,7 +16343,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16321,7 +16364,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16342,7 +16385,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16363,7 +16406,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16384,7 +16427,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16405,7 +16448,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16426,7 +16469,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16447,7 +16490,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16468,7 +16511,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16489,7 +16532,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16498,7 +16541,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16507,7 +16550,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16516,7 +16559,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16525,7 +16568,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16534,7 +16577,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16543,7 +16586,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16552,7 +16595,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16561,7 +16604,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16570,7 +16613,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16579,7 +16622,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16588,7 +16631,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16597,7 +16640,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16606,7 +16649,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16615,7 +16658,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16624,7 +16667,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16633,7 +16676,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16642,7 +16685,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16651,7 +16694,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16660,7 +16703,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16669,7 +16712,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16678,7 +16721,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16687,7 +16730,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16696,7 +16739,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16705,7 +16748,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16714,7 +16757,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16723,7 +16766,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16732,7 +16775,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16741,7 +16784,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16750,7 +16793,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
